--- a/Entrega FINAL Diploma/2da Entrega/Procesos.xlsx
+++ b/Entrega FINAL Diploma/2da Entrega/Procesos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Crear Solicitud</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Crear Asignacion</t>
   </si>
   <si>
-    <t>Crear Rendicion</t>
-  </si>
-  <si>
-    <t>Agregar Inventario</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -60,6 +54,24 @@
   </si>
   <si>
     <t>Pag 54</t>
+  </si>
+  <si>
+    <t>Pag 59</t>
+  </si>
+  <si>
+    <t>IG001</t>
+  </si>
+  <si>
+    <t>Pag 81</t>
+  </si>
+  <si>
+    <t>AA001</t>
+  </si>
+  <si>
+    <t>Pag 117</t>
+  </si>
+  <si>
+    <t>AA008</t>
   </si>
 </sst>
 </file>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,13 +405,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -407,38 +419,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Entrega FINAL Diploma/2da Entrega/Procesos.xlsx
+++ b/Entrega FINAL Diploma/2da Entrega/Procesos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Crear Solicitud</t>
   </si>
@@ -41,37 +41,28 @@
     <t>Crear Asignacion</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>SC001</t>
-  </si>
-  <si>
     <t>Pag 44</t>
   </si>
   <si>
-    <t>SC006</t>
-  </si>
-  <si>
     <t>Pag 54</t>
   </si>
   <si>
     <t>Pag 59</t>
   </si>
   <si>
-    <t>IG001</t>
-  </si>
-  <si>
     <t>Pag 81</t>
   </si>
   <si>
-    <t>AA001</t>
-  </si>
-  <si>
     <t>Pag 117</t>
   </si>
   <si>
-    <t>AA008</t>
+    <t xml:space="preserve">Casos de uso </t>
+  </si>
+  <si>
+    <t>Casos de prueba</t>
+  </si>
+  <si>
+    <t>Pag 180</t>
   </si>
 </sst>
 </file>
@@ -389,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,74 +391,57 @@
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
